--- a/clcore_ig/output/CodeSystem-CSCodigoVacunas.xlsx
+++ b/clcore_ig/output/CodeSystem-CSCodigoVacunas.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.7</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Chile (http://hl7chile.cl, chair@hl7chile.cl)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
